--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3977,28 +3977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4163.2987693838</v>
+        <v>4584.069533363514</v>
       </c>
       <c r="AB2" t="n">
-        <v>5696.409048050043</v>
+        <v>6272.126170423108</v>
       </c>
       <c r="AC2" t="n">
-        <v>5152.751763464245</v>
+        <v>5673.523251702058</v>
       </c>
       <c r="AD2" t="n">
-        <v>4163298.7693838</v>
+        <v>4584069.533363514</v>
       </c>
       <c r="AE2" t="n">
-        <v>5696409.048050042</v>
+        <v>6272126.170423108</v>
       </c>
       <c r="AF2" t="n">
         <v>1.867873201510904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>5152751.763464244</v>
+        <v>5673523.251702058</v>
       </c>
     </row>
     <row r="3">
@@ -4083,28 +4083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2060.606412139835</v>
+        <v>2324.795001212758</v>
       </c>
       <c r="AB3" t="n">
-        <v>2819.412600628693</v>
+        <v>3180.887083376417</v>
       </c>
       <c r="AC3" t="n">
-        <v>2550.331819095128</v>
+        <v>2877.307684541913</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060606.412139835</v>
+        <v>2324795.001212758</v>
       </c>
       <c r="AE3" t="n">
-        <v>2819412.600628693</v>
+        <v>3180887.083376417</v>
       </c>
       <c r="AF3" t="n">
         <v>2.944769121896708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.30078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2550331.819095128</v>
+        <v>2877307.684541913</v>
       </c>
     </row>
     <row r="4">
@@ -4189,28 +4189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1687.852040310585</v>
+        <v>1922.742385380164</v>
       </c>
       <c r="AB4" t="n">
-        <v>2309.393624329642</v>
+        <v>2630.780957084507</v>
       </c>
       <c r="AC4" t="n">
-        <v>2088.988338077928</v>
+        <v>2379.702914864624</v>
       </c>
       <c r="AD4" t="n">
-        <v>1687852.040310585</v>
+        <v>1922742.385380164</v>
       </c>
       <c r="AE4" t="n">
-        <v>2309393.624329641</v>
+        <v>2630780.957084507</v>
       </c>
       <c r="AF4" t="n">
         <v>3.35701269115118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.75130208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2088988.338077928</v>
+        <v>2379702.914864624</v>
       </c>
     </row>
     <row r="5">
@@ -4295,28 +4295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1524.623914454348</v>
+        <v>1749.691572834799</v>
       </c>
       <c r="AB5" t="n">
-        <v>2086.057701416456</v>
+        <v>2394.005200896901</v>
       </c>
       <c r="AC5" t="n">
-        <v>1886.967282193641</v>
+        <v>2165.524704530703</v>
       </c>
       <c r="AD5" t="n">
-        <v>1524623.914454348</v>
+        <v>1749691.572834799</v>
       </c>
       <c r="AE5" t="n">
-        <v>2086057.701416455</v>
+        <v>2394005.200896902</v>
       </c>
       <c r="AF5" t="n">
         <v>3.581697490300401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.82161458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1886967.28219364</v>
+        <v>2165524.704530703</v>
       </c>
     </row>
     <row r="6">
@@ -4401,28 +4401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1440.711906235834</v>
+        <v>1646.203533105445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1971.245589835351</v>
+        <v>2252.408299369109</v>
       </c>
       <c r="AC6" t="n">
-        <v>1783.112677402026</v>
+        <v>2037.441612552223</v>
       </c>
       <c r="AD6" t="n">
-        <v>1440711.906235834</v>
+        <v>1646203.533105445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1971245.589835351</v>
+        <v>2252408.299369109</v>
       </c>
       <c r="AF6" t="n">
         <v>3.716460154167798e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.23307291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1783112.677402026</v>
+        <v>2037441.612552223</v>
       </c>
     </row>
     <row r="7">
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1377.147991592978</v>
+        <v>1582.605453043808</v>
       </c>
       <c r="AB7" t="n">
-        <v>1884.274637578995</v>
+        <v>2165.390600479505</v>
       </c>
       <c r="AC7" t="n">
-        <v>1704.442110764519</v>
+        <v>1958.728760714536</v>
       </c>
       <c r="AD7" t="n">
-        <v>1377147.991592978</v>
+        <v>1582605.453043808</v>
       </c>
       <c r="AE7" t="n">
-        <v>1884274.637578995</v>
+        <v>2165390.600479505</v>
       </c>
       <c r="AF7" t="n">
         <v>3.809998461109749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.19140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1704442.110764519</v>
+        <v>1958728.760714536</v>
       </c>
     </row>
     <row r="8">
@@ -4613,28 +4613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1325.568873335209</v>
+        <v>1530.992169367258</v>
       </c>
       <c r="AB8" t="n">
-        <v>1813.701812468615</v>
+        <v>2094.771028735877</v>
       </c>
       <c r="AC8" t="n">
-        <v>1640.604657033091</v>
+        <v>1894.849021782928</v>
       </c>
       <c r="AD8" t="n">
-        <v>1325568.873335209</v>
+        <v>1530992.169367258</v>
       </c>
       <c r="AE8" t="n">
-        <v>1813701.812468615</v>
+        <v>2094771.028735877</v>
       </c>
       <c r="AF8" t="n">
         <v>3.882321894312287e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.42317708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1640604.657033091</v>
+        <v>1894849.021782928</v>
       </c>
     </row>
     <row r="9">
@@ -4719,28 +4719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1282.524358009887</v>
+        <v>1488.014973849641</v>
       </c>
       <c r="AB9" t="n">
-        <v>1754.806407610518</v>
+        <v>2035.967733808621</v>
       </c>
       <c r="AC9" t="n">
-        <v>1587.330146954431</v>
+        <v>1841.657830792587</v>
       </c>
       <c r="AD9" t="n">
-        <v>1282524.358009887</v>
+        <v>1488014.973849641</v>
       </c>
       <c r="AE9" t="n">
-        <v>1754806.407610518</v>
+        <v>2035967.733808622</v>
       </c>
       <c r="AF9" t="n">
         <v>3.93511800055014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.8828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1587330.146954431</v>
+        <v>1841657.830792587</v>
       </c>
     </row>
     <row r="10">
@@ -4825,28 +4825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1250.471634166827</v>
+        <v>1446.140574347309</v>
       </c>
       <c r="AB10" t="n">
-        <v>1710.950456782067</v>
+        <v>1978.673333041405</v>
       </c>
       <c r="AC10" t="n">
-        <v>1547.659746520834</v>
+        <v>1789.831527221397</v>
       </c>
       <c r="AD10" t="n">
-        <v>1250471.634166827</v>
+        <v>1446140.574347309</v>
       </c>
       <c r="AE10" t="n">
-        <v>1710950.456782067</v>
+        <v>1978673.333041405</v>
       </c>
       <c r="AF10" t="n">
         <v>3.974413732590187e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.4921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1547659.746520834</v>
+        <v>1789831.527221397</v>
       </c>
     </row>
     <row r="11">
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1223.265670119862</v>
+        <v>1418.934610300343</v>
       </c>
       <c r="AB11" t="n">
-        <v>1673.726056530584</v>
+        <v>1941.448932789922</v>
       </c>
       <c r="AC11" t="n">
-        <v>1513.987990784578</v>
+        <v>1756.159771485142</v>
       </c>
       <c r="AD11" t="n">
-        <v>1223265.670119862</v>
+        <v>1418934.610300343</v>
       </c>
       <c r="AE11" t="n">
-        <v>1673726.056530584</v>
+        <v>1941448.932789922</v>
       </c>
       <c r="AF11" t="n">
         <v>4.009370058638081e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.14713541666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1513987.990784578</v>
+        <v>1756159.771485142</v>
       </c>
     </row>
     <row r="12">
@@ -5037,28 +5037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1191.391298363573</v>
+        <v>1387.127558351759</v>
       </c>
       <c r="AB12" t="n">
-        <v>1630.114134895592</v>
+        <v>1897.929121085772</v>
       </c>
       <c r="AC12" t="n">
-        <v>1474.538329740714</v>
+        <v>1716.793429529597</v>
       </c>
       <c r="AD12" t="n">
-        <v>1191391.298363573</v>
+        <v>1387127.558351759</v>
       </c>
       <c r="AE12" t="n">
-        <v>1630114.134895592</v>
+        <v>1897929.121085772</v>
       </c>
       <c r="AF12" t="n">
         <v>4.032754635373568e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.91927083333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1474538.329740714</v>
+        <v>1716793.429529597</v>
       </c>
     </row>
     <row r="13">
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1183.234607514878</v>
+        <v>1378.970867503064</v>
       </c>
       <c r="AB13" t="n">
-        <v>1618.953790628604</v>
+        <v>1886.768776818784</v>
       </c>
       <c r="AC13" t="n">
-        <v>1464.443113066926</v>
+        <v>1706.698212855808</v>
       </c>
       <c r="AD13" t="n">
-        <v>1183234.607514878</v>
+        <v>1378970.867503064</v>
       </c>
       <c r="AE13" t="n">
-        <v>1618953.790628604</v>
+        <v>1886768.776818784</v>
       </c>
       <c r="AF13" t="n">
         <v>4.044326384685974e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>39</v>
+        <v>38.80859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1464443.113066926</v>
+        <v>1706698.212855808</v>
       </c>
     </row>
     <row r="14">
@@ -5249,28 +5249,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1187.976548119649</v>
+        <v>1383.712808107835</v>
       </c>
       <c r="AB14" t="n">
-        <v>1625.441922963706</v>
+        <v>1893.256909153886</v>
       </c>
       <c r="AC14" t="n">
-        <v>1470.312027158117</v>
+        <v>1712.567126946999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1187976.548119649</v>
+        <v>1383712.808107835</v>
       </c>
       <c r="AE14" t="n">
-        <v>1625441.922963707</v>
+        <v>1893256.909153886</v>
       </c>
       <c r="AF14" t="n">
         <v>4.041674525468549e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>39</v>
+        <v>38.83463541666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1470312.027158117</v>
+        <v>1712567.126946999</v>
       </c>
     </row>
   </sheetData>
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2967.254039590657</v>
+        <v>3325.331861888315</v>
       </c>
       <c r="AB2" t="n">
-        <v>4059.927882977513</v>
+        <v>4549.865756723801</v>
       </c>
       <c r="AC2" t="n">
-        <v>3672.454063970558</v>
+        <v>4115.632954678606</v>
       </c>
       <c r="AD2" t="n">
-        <v>2967254.039590657</v>
+        <v>3325331.861888316</v>
       </c>
       <c r="AE2" t="n">
-        <v>4059927.882977514</v>
+        <v>4549865.756723801</v>
       </c>
       <c r="AF2" t="n">
         <v>2.422590743280877e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.89192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3672454.063970558</v>
+        <v>4115632.954678605</v>
       </c>
     </row>
     <row r="3">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1697.821819647095</v>
+        <v>1939.734063173313</v>
       </c>
       <c r="AB3" t="n">
-        <v>2323.034716253477</v>
+        <v>2654.029720261011</v>
       </c>
       <c r="AC3" t="n">
-        <v>2101.327543333946</v>
+        <v>2400.732848713407</v>
       </c>
       <c r="AD3" t="n">
-        <v>1697821.819647095</v>
+        <v>1939734.063173313</v>
       </c>
       <c r="AE3" t="n">
-        <v>2323034.716253477</v>
+        <v>2654029.720261011</v>
       </c>
       <c r="AF3" t="n">
         <v>3.481682841960399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.32291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2101327.543333946</v>
+        <v>2400732.848713407</v>
       </c>
     </row>
     <row r="4">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1437.116295093543</v>
+        <v>1659.633274900764</v>
       </c>
       <c r="AB4" t="n">
-        <v>1966.325916043301</v>
+        <v>2270.783464571857</v>
       </c>
       <c r="AC4" t="n">
-        <v>1778.662530371884</v>
+        <v>2054.063077777728</v>
       </c>
       <c r="AD4" t="n">
-        <v>1437116.295093543</v>
+        <v>1659633.274900764</v>
       </c>
       <c r="AE4" t="n">
-        <v>1966325.916043301</v>
+        <v>2270783.464571857</v>
       </c>
       <c r="AF4" t="n">
         <v>3.874193188868276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.32942708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1778662.530371884</v>
+        <v>2054063.077777728</v>
       </c>
     </row>
     <row r="5">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1317.498388685657</v>
+        <v>1520.722601030224</v>
       </c>
       <c r="AB5" t="n">
-        <v>1802.659419326445</v>
+        <v>2080.719752275766</v>
       </c>
       <c r="AC5" t="n">
-        <v>1630.616134394313</v>
+        <v>1882.13877942708</v>
       </c>
       <c r="AD5" t="n">
-        <v>1317498.388685657</v>
+        <v>1520722.601030224</v>
       </c>
       <c r="AE5" t="n">
-        <v>1802659.419326445</v>
+        <v>2080719.752275766</v>
       </c>
       <c r="AF5" t="n">
         <v>4.084165121757168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.05078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1630616.134394313</v>
+        <v>1882138.77942708</v>
       </c>
     </row>
     <row r="6">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1236.24368292223</v>
+        <v>1439.501049655719</v>
       </c>
       <c r="AB6" t="n">
-        <v>1691.4831461963</v>
+        <v>1969.588842443216</v>
       </c>
       <c r="AC6" t="n">
-        <v>1530.05036873483</v>
+        <v>1781.614047655737</v>
       </c>
       <c r="AD6" t="n">
-        <v>1236243.68292223</v>
+        <v>1439501.049655719</v>
       </c>
       <c r="AE6" t="n">
-        <v>1691483.1461963</v>
+        <v>1969588.842443216</v>
       </c>
       <c r="AF6" t="n">
         <v>4.212627849542206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.76822916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1530050.368734831</v>
+        <v>1781614.047655737</v>
       </c>
     </row>
     <row r="7">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1179.276819960768</v>
+        <v>1382.500021275477</v>
       </c>
       <c r="AB7" t="n">
-        <v>1613.538571091807</v>
+        <v>1891.597520705475</v>
       </c>
       <c r="AC7" t="n">
-        <v>1459.544714482412</v>
+        <v>1711.066108203139</v>
       </c>
       <c r="AD7" t="n">
-        <v>1179276.819960768</v>
+        <v>1382500.021275477</v>
       </c>
       <c r="AE7" t="n">
-        <v>1613538.571091807</v>
+        <v>1891597.520705475</v>
       </c>
       <c r="AF7" t="n">
         <v>4.295719757657784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.98046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1459544.714482412</v>
+        <v>1711066.108203139</v>
       </c>
     </row>
     <row r="8">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1136.727632176153</v>
+        <v>1330.23712995183</v>
       </c>
       <c r="AB8" t="n">
-        <v>1555.320895227214</v>
+        <v>1820.089127120423</v>
       </c>
       <c r="AC8" t="n">
-        <v>1406.883251893315</v>
+        <v>1646.382375339183</v>
       </c>
       <c r="AD8" t="n">
-        <v>1136727.632176153</v>
+        <v>1330237.12995183</v>
       </c>
       <c r="AE8" t="n">
-        <v>1555320.895227214</v>
+        <v>1820089.127120423</v>
       </c>
       <c r="AF8" t="n">
         <v>4.367205177020712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.32291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1406883.251893315</v>
+        <v>1646382.375339183</v>
       </c>
     </row>
     <row r="9">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1115.050274385963</v>
+        <v>1308.55977216164</v>
       </c>
       <c r="AB9" t="n">
-        <v>1525.660977961145</v>
+        <v>1790.429209854354</v>
       </c>
       <c r="AC9" t="n">
-        <v>1380.054035503164</v>
+        <v>1619.553158949032</v>
       </c>
       <c r="AD9" t="n">
-        <v>1115050.274385963</v>
+        <v>1308559.77216164</v>
       </c>
       <c r="AE9" t="n">
-        <v>1525660.977961145</v>
+        <v>1790429.209854354</v>
       </c>
       <c r="AF9" t="n">
         <v>4.399123021090505e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.03645833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1380054.035503164</v>
+        <v>1619553.158949032</v>
       </c>
     </row>
     <row r="10">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1101.453730021827</v>
+        <v>1304.642765917756</v>
       </c>
       <c r="AB10" t="n">
-        <v>1507.057586124932</v>
+        <v>1785.069789105352</v>
       </c>
       <c r="AC10" t="n">
-        <v>1363.226125273775</v>
+        <v>1614.705233794321</v>
       </c>
       <c r="AD10" t="n">
-        <v>1101453.730021827</v>
+        <v>1304642.765917756</v>
       </c>
       <c r="AE10" t="n">
-        <v>1507057.586124932</v>
+        <v>1785069.789105352</v>
       </c>
       <c r="AF10" t="n">
         <v>4.407827887654994e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.95833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1363226.125273775</v>
+        <v>1614705.233794321</v>
       </c>
     </row>
     <row r="11">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1104.436825536616</v>
+        <v>1307.625861432544</v>
       </c>
       <c r="AB11" t="n">
-        <v>1511.139189013152</v>
+        <v>1789.151391993572</v>
       </c>
       <c r="AC11" t="n">
-        <v>1366.918185710908</v>
+        <v>1618.397294231454</v>
       </c>
       <c r="AD11" t="n">
-        <v>1104436.825536616</v>
+        <v>1307625.861432544</v>
       </c>
       <c r="AE11" t="n">
-        <v>1511139.189013152</v>
+        <v>1789151.391993572</v>
       </c>
       <c r="AF11" t="n">
         <v>4.40941059066672e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.9453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1366918.185710908</v>
+        <v>1618397.294231454</v>
       </c>
     </row>
   </sheetData>
@@ -6797,28 +6797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1314.187785792291</v>
+        <v>1557.361980187619</v>
       </c>
       <c r="AB2" t="n">
-        <v>1798.129706394249</v>
+        <v>2130.851367254242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1626.518730906874</v>
+        <v>1927.485903432174</v>
       </c>
       <c r="AD2" t="n">
-        <v>1314187.785792291</v>
+        <v>1557361.980187619</v>
       </c>
       <c r="AE2" t="n">
-        <v>1798129.706394249</v>
+        <v>2130851.367254242</v>
       </c>
       <c r="AF2" t="n">
         <v>4.834637835273682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.58333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1626518.730906874</v>
+        <v>1927485.903432174</v>
       </c>
     </row>
     <row r="3">
@@ -6903,28 +6903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>969.1160679990053</v>
+        <v>1165.479699306777</v>
       </c>
       <c r="AB3" t="n">
-        <v>1325.987358619707</v>
+        <v>1594.660741927013</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.436986147988</v>
+        <v>1442.468558837906</v>
       </c>
       <c r="AD3" t="n">
-        <v>969116.0679990053</v>
+        <v>1165479.699306777</v>
       </c>
       <c r="AE3" t="n">
-        <v>1325987.358619707</v>
+        <v>1594660.741927013</v>
       </c>
       <c r="AF3" t="n">
         <v>5.776086997164993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.49739583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199436.986147988</v>
+        <v>1442468.558837906</v>
       </c>
     </row>
     <row r="4">
@@ -7009,28 +7009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>920.1318877073192</v>
+        <v>1116.46135359631</v>
       </c>
       <c r="AB4" t="n">
-        <v>1258.965042115105</v>
+        <v>1527.591678789164</v>
       </c>
       <c r="AC4" t="n">
-        <v>1138.811185464173</v>
+        <v>1381.800472953912</v>
       </c>
       <c r="AD4" t="n">
-        <v>920131.8877073191</v>
+        <v>1116461.35359631</v>
       </c>
       <c r="AE4" t="n">
-        <v>1258965.042115105</v>
+        <v>1527591.678789163</v>
       </c>
       <c r="AF4" t="n">
         <v>5.932565641593544e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.40364583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1138811.185464173</v>
+        <v>1381800.472953912</v>
       </c>
     </row>
   </sheetData>
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1765.164968501177</v>
+        <v>2040.091171389503</v>
       </c>
       <c r="AB2" t="n">
-        <v>2415.176583485678</v>
+        <v>2791.342743165543</v>
       </c>
       <c r="AC2" t="n">
-        <v>2184.675520079429</v>
+        <v>2524.940909431969</v>
       </c>
       <c r="AD2" t="n">
-        <v>1765164.968501177</v>
+        <v>2040091.171389503</v>
       </c>
       <c r="AE2" t="n">
-        <v>2415176.583485678</v>
+        <v>2791342.743165543</v>
       </c>
       <c r="AF2" t="n">
         <v>3.720955753187168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.78776041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2184675.520079429</v>
+        <v>2524940.909431969</v>
       </c>
     </row>
     <row r="3">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1218.184476049887</v>
+        <v>1426.733699068718</v>
       </c>
       <c r="AB3" t="n">
-        <v>1666.773742637583</v>
+        <v>1952.119990114325</v>
       </c>
       <c r="AC3" t="n">
-        <v>1507.699195971891</v>
+        <v>1765.812398075427</v>
       </c>
       <c r="AD3" t="n">
-        <v>1218184.476049887</v>
+        <v>1426733.699068718</v>
       </c>
       <c r="AE3" t="n">
-        <v>1666773.742637583</v>
+        <v>1952119.990114325</v>
       </c>
       <c r="AF3" t="n">
         <v>4.712891772738606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1507699.195971892</v>
+        <v>1765812.398075427</v>
       </c>
     </row>
     <row r="4">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1056.775658350411</v>
+        <v>1265.289704920604</v>
       </c>
       <c r="AB4" t="n">
-        <v>1445.927077406688</v>
+        <v>1731.225194914529</v>
       </c>
       <c r="AC4" t="n">
-        <v>1307.929826510392</v>
+        <v>1565.999492101707</v>
       </c>
       <c r="AD4" t="n">
-        <v>1056775.658350411</v>
+        <v>1265289.704920604</v>
       </c>
       <c r="AE4" t="n">
-        <v>1445927.077406688</v>
+        <v>1731225.194914529</v>
       </c>
       <c r="AF4" t="n">
         <v>5.070320341660869e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1307929.826510392</v>
+        <v>1565999.492101707</v>
       </c>
     </row>
     <row r="5">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>986.0550134899241</v>
+        <v>1185.120655350419</v>
       </c>
       <c r="AB5" t="n">
-        <v>1349.163971133916</v>
+        <v>1621.53436448375</v>
       </c>
       <c r="AC5" t="n">
-        <v>1220.401655292421</v>
+        <v>1466.777400575195</v>
       </c>
       <c r="AD5" t="n">
-        <v>986055.0134899241</v>
+        <v>1185120.655350419</v>
       </c>
       <c r="AE5" t="n">
-        <v>1349163.971133916</v>
+        <v>1621534.36448375</v>
       </c>
       <c r="AF5" t="n">
         <v>5.229744324231014e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.69401041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1220401.655292421</v>
+        <v>1466777.400575195</v>
       </c>
     </row>
     <row r="6">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>981.0741560691939</v>
+        <v>1170.725558638772</v>
       </c>
       <c r="AB6" t="n">
-        <v>1342.348942270952</v>
+        <v>1601.838358096028</v>
       </c>
       <c r="AC6" t="n">
-        <v>1214.237043219184</v>
+        <v>1448.961153393598</v>
       </c>
       <c r="AD6" t="n">
-        <v>981074.156069194</v>
+        <v>1170725.558638772</v>
       </c>
       <c r="AE6" t="n">
-        <v>1342348.942270952</v>
+        <v>1601838.358096028</v>
       </c>
       <c r="AF6" t="n">
         <v>5.243135938766906e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.58984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1214237.043219185</v>
+        <v>1448961.153393598</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1028.735197210629</v>
+        <v>1241.513790607704</v>
       </c>
       <c r="AB2" t="n">
-        <v>1407.560881417401</v>
+        <v>1698.693940032309</v>
       </c>
       <c r="AC2" t="n">
-        <v>1273.225246419028</v>
+        <v>1536.572974527543</v>
       </c>
       <c r="AD2" t="n">
-        <v>1028735.197210629</v>
+        <v>1241513.790607704</v>
       </c>
       <c r="AE2" t="n">
-        <v>1407560.881417401</v>
+        <v>1698693.940032309</v>
       </c>
       <c r="AF2" t="n">
         <v>6.032500718341118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.51432291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1273225.246419028</v>
+        <v>1536572.974527543</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>874.957218804817</v>
+        <v>1078.416238173153</v>
       </c>
       <c r="AB3" t="n">
-        <v>1197.155067156966</v>
+        <v>1475.536673435165</v>
       </c>
       <c r="AC3" t="n">
-        <v>1082.900267765194</v>
+        <v>1334.71352425124</v>
       </c>
       <c r="AD3" t="n">
-        <v>874957.2188048169</v>
+        <v>1078416.238173153</v>
       </c>
       <c r="AE3" t="n">
-        <v>1197155.067156966</v>
+        <v>1475536.673435165</v>
       </c>
       <c r="AF3" t="n">
         <v>6.601803477499488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.58854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1082900.267765194</v>
+        <v>1334713.52425124</v>
       </c>
     </row>
     <row r="4">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>880.2770292124943</v>
+        <v>1083.73604858083</v>
       </c>
       <c r="AB4" t="n">
-        <v>1204.433866450222</v>
+        <v>1482.815472728421</v>
       </c>
       <c r="AC4" t="n">
-        <v>1089.48438866976</v>
+        <v>1341.297645155807</v>
       </c>
       <c r="AD4" t="n">
-        <v>880277.0292124943</v>
+        <v>1083736.04858083</v>
       </c>
       <c r="AE4" t="n">
-        <v>1204433.866450222</v>
+        <v>1482815.472728421</v>
       </c>
       <c r="AF4" t="n">
         <v>6.60096006600444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.59505208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1089484.38866976</v>
+        <v>1341297.645155807</v>
       </c>
     </row>
   </sheetData>
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3225.49118250447</v>
+        <v>3594.362142222325</v>
       </c>
       <c r="AB2" t="n">
-        <v>4413.259334530907</v>
+        <v>4917.964855055127</v>
       </c>
       <c r="AC2" t="n">
-        <v>3992.064057691488</v>
+        <v>4448.601191695506</v>
       </c>
       <c r="AD2" t="n">
-        <v>3225491.18250447</v>
+        <v>3594362.142222325</v>
       </c>
       <c r="AE2" t="n">
-        <v>4413259.334530907</v>
+        <v>4917964.855055127</v>
       </c>
       <c r="AF2" t="n">
         <v>2.268567452438735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.87369791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3992064.057691488</v>
+        <v>4448601.191695506</v>
       </c>
     </row>
     <row r="3">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1783.567410343166</v>
+        <v>2035.863905867396</v>
       </c>
       <c r="AB3" t="n">
-        <v>2440.355616272324</v>
+        <v>2785.558811984405</v>
       </c>
       <c r="AC3" t="n">
-        <v>2207.451501315912</v>
+        <v>2519.708988524959</v>
       </c>
       <c r="AD3" t="n">
-        <v>1783567.410343166</v>
+        <v>2035863.905867396</v>
       </c>
       <c r="AE3" t="n">
-        <v>2440355.616272324</v>
+        <v>2785558.811984404</v>
       </c>
       <c r="AF3" t="n">
         <v>3.335538074288111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.24088541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2207451.501315912</v>
+        <v>2519708.988524959</v>
       </c>
     </row>
     <row r="4">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1491.229487989739</v>
+        <v>1714.500682643974</v>
       </c>
       <c r="AB4" t="n">
-        <v>2040.365973869458</v>
+        <v>2345.85547242531</v>
       </c>
       <c r="AC4" t="n">
-        <v>1845.636308994986</v>
+        <v>2121.970318565871</v>
       </c>
       <c r="AD4" t="n">
-        <v>1491229.487989739</v>
+        <v>1714500.682643974</v>
       </c>
       <c r="AE4" t="n">
-        <v>2040365.973869458</v>
+        <v>2345855.47242531</v>
       </c>
       <c r="AF4" t="n">
         <v>3.735555528173258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.86328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1845636.308994986</v>
+        <v>2121970.318565872</v>
       </c>
     </row>
     <row r="5">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1367.331193590682</v>
+        <v>1580.89345954609</v>
       </c>
       <c r="AB5" t="n">
-        <v>1870.842861465691</v>
+        <v>2163.048175448103</v>
       </c>
       <c r="AC5" t="n">
-        <v>1692.292244511852</v>
+        <v>1956.609893440517</v>
       </c>
       <c r="AD5" t="n">
-        <v>1367331.193590682</v>
+        <v>1580893.45954609</v>
       </c>
       <c r="AE5" t="n">
-        <v>1870842.861465691</v>
+        <v>2163048.175448103</v>
       </c>
       <c r="AF5" t="n">
         <v>3.942514365318469e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.50651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1692292.244511852</v>
+        <v>1956609.893440517</v>
       </c>
     </row>
     <row r="6">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1292.416473349135</v>
+        <v>1496.202490798012</v>
       </c>
       <c r="AB6" t="n">
-        <v>1768.341236227006</v>
+        <v>2047.170255705138</v>
       </c>
       <c r="AC6" t="n">
-        <v>1599.573230524013</v>
+        <v>1851.791199722139</v>
       </c>
       <c r="AD6" t="n">
-        <v>1292416.473349135</v>
+        <v>1496202.490798012</v>
       </c>
       <c r="AE6" t="n">
-        <v>1768341.236227006</v>
+        <v>2047170.255705138</v>
       </c>
       <c r="AF6" t="n">
         <v>4.073794224701625e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.13932291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1599573.230524013</v>
+        <v>1851791.199722138</v>
       </c>
     </row>
     <row r="7">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1234.777338035179</v>
+        <v>1428.88859220401</v>
       </c>
       <c r="AB7" t="n">
-        <v>1689.476828431267</v>
+        <v>1955.068409969207</v>
       </c>
       <c r="AC7" t="n">
-        <v>1528.235531121407</v>
+        <v>1768.479424877493</v>
       </c>
       <c r="AD7" t="n">
-        <v>1234777.338035179</v>
+        <v>1428888.59220401</v>
       </c>
       <c r="AE7" t="n">
-        <v>1689476.828431267</v>
+        <v>1955068.409969207</v>
       </c>
       <c r="AF7" t="n">
         <v>4.164660480313887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.24088541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1528235.531121407</v>
+        <v>1768479.424877493</v>
       </c>
     </row>
     <row r="8">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1185.326137345801</v>
+        <v>1389.145309183602</v>
       </c>
       <c r="AB8" t="n">
-        <v>1621.815514015058</v>
+        <v>1900.689896790784</v>
       </c>
       <c r="AC8" t="n">
-        <v>1467.03171758983</v>
+        <v>1719.290720676095</v>
       </c>
       <c r="AD8" t="n">
-        <v>1185326.137345801</v>
+        <v>1389145.309183602</v>
       </c>
       <c r="AE8" t="n">
-        <v>1621815.514015058</v>
+        <v>1900689.896790784</v>
       </c>
       <c r="AF8" t="n">
         <v>4.229270764049519e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.62239583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1467031.71758983</v>
+        <v>1719290.720676095</v>
       </c>
     </row>
     <row r="9">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1152.317021139495</v>
+        <v>1346.394109889545</v>
       </c>
       <c r="AB9" t="n">
-        <v>1576.65098496216</v>
+        <v>1842.195819866853</v>
       </c>
       <c r="AC9" t="n">
-        <v>1426.177627800927</v>
+        <v>1666.379236356832</v>
       </c>
       <c r="AD9" t="n">
-        <v>1152317.021139495</v>
+        <v>1346394.109889545</v>
       </c>
       <c r="AE9" t="n">
-        <v>1576650.98496216</v>
+        <v>1842195.819866853</v>
       </c>
       <c r="AF9" t="n">
         <v>4.27663447802305e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.18619791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1426177.627800927</v>
+        <v>1666379.236356832</v>
       </c>
     </row>
     <row r="10">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1119.610388943015</v>
+        <v>1313.75479750077</v>
       </c>
       <c r="AB10" t="n">
-        <v>1531.90032787616</v>
+        <v>1797.537272711694</v>
       </c>
       <c r="AC10" t="n">
-        <v>1385.697910619272</v>
+        <v>1625.982838263496</v>
       </c>
       <c r="AD10" t="n">
-        <v>1119610.388943015</v>
+        <v>1313754.79750077</v>
       </c>
       <c r="AE10" t="n">
-        <v>1531900.32787616</v>
+        <v>1797537.272711694</v>
       </c>
       <c r="AF10" t="n">
         <v>4.30597938776752e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.91927083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1385697.910619272</v>
+        <v>1625982.838263497</v>
       </c>
     </row>
     <row r="11">
@@ -9490,28 +9490,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1122.771539997522</v>
+        <v>1316.915948555276</v>
       </c>
       <c r="AB11" t="n">
-        <v>1536.225554209077</v>
+        <v>1801.862499044612</v>
       </c>
       <c r="AC11" t="n">
-        <v>1389.61034342147</v>
+        <v>1629.895271065694</v>
       </c>
       <c r="AD11" t="n">
-        <v>1122771.539997522</v>
+        <v>1316915.948555276</v>
       </c>
       <c r="AE11" t="n">
-        <v>1536225.554209077</v>
+        <v>1801862.499044612</v>
       </c>
       <c r="AF11" t="n">
         <v>4.304434918833601e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.93229166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1389610.34342147</v>
+        <v>1629895.271065694</v>
       </c>
     </row>
     <row r="12">
@@ -9596,28 +9596,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1126.439568869176</v>
+        <v>1330.224575288196</v>
       </c>
       <c r="AB12" t="n">
-        <v>1541.244313133288</v>
+        <v>1820.071949275766</v>
       </c>
       <c r="AC12" t="n">
-        <v>1394.150119037826</v>
+        <v>1646.366836923911</v>
       </c>
       <c r="AD12" t="n">
-        <v>1126439.568869176</v>
+        <v>1330224.575288196</v>
       </c>
       <c r="AE12" t="n">
-        <v>1541244.313133288</v>
+        <v>1820071.949275766</v>
       </c>
       <c r="AF12" t="n">
         <v>4.302890449899681e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.9453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1394150.119037826</v>
+        <v>1646366.836923911</v>
       </c>
     </row>
   </sheetData>
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>893.0013422817326</v>
+        <v>1104.291933796127</v>
       </c>
       <c r="AB2" t="n">
-        <v>1221.843832948628</v>
+        <v>1510.940941741641</v>
       </c>
       <c r="AC2" t="n">
-        <v>1105.2327724006</v>
+        <v>1366.738858880749</v>
       </c>
       <c r="AD2" t="n">
-        <v>893001.3422817326</v>
+        <v>1104291.933796127</v>
       </c>
       <c r="AE2" t="n">
-        <v>1221843.832948628</v>
+        <v>1510940.941741641</v>
       </c>
       <c r="AF2" t="n">
         <v>6.872906359234797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1105232.7724006</v>
+        <v>1366738.858880749</v>
       </c>
     </row>
     <row r="3">
@@ -9999,28 +9999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>856.904141854905</v>
+        <v>1059.039380424951</v>
       </c>
       <c r="AB3" t="n">
-        <v>1172.454050828552</v>
+        <v>1449.024401817443</v>
       </c>
       <c r="AC3" t="n">
-        <v>1060.556681767069</v>
+        <v>1310.731546626507</v>
       </c>
       <c r="AD3" t="n">
-        <v>856904.1418549049</v>
+        <v>1059039.380424951</v>
       </c>
       <c r="AE3" t="n">
-        <v>1172454.050828552</v>
+        <v>1449024.401817443</v>
       </c>
       <c r="AF3" t="n">
         <v>7.051477340169599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1060556.68176707</v>
+        <v>1310731.546626507</v>
       </c>
     </row>
   </sheetData>
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2303.228230363207</v>
+        <v>2619.544378965435</v>
       </c>
       <c r="AB2" t="n">
-        <v>3151.37847604128</v>
+        <v>3584.176185442464</v>
       </c>
       <c r="AC2" t="n">
-        <v>2850.615337275252</v>
+        <v>3242.107440726571</v>
       </c>
       <c r="AD2" t="n">
-        <v>2303228.230363207</v>
+        <v>2619544.378965436</v>
       </c>
       <c r="AE2" t="n">
-        <v>3151378.47604128</v>
+        <v>3584176.185442464</v>
       </c>
       <c r="AF2" t="n">
         <v>2.973552734536353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.79947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2850615.337275252</v>
+        <v>3242107.440726571</v>
       </c>
     </row>
     <row r="3">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1448.431872517906</v>
+        <v>1678.520357905359</v>
       </c>
       <c r="AB3" t="n">
-        <v>1981.808388283358</v>
+        <v>2296.625604778039</v>
       </c>
       <c r="AC3" t="n">
-        <v>1792.667377191136</v>
+        <v>2077.438880392303</v>
       </c>
       <c r="AD3" t="n">
-        <v>1448431.872517906</v>
+        <v>1678520.357905359</v>
       </c>
       <c r="AE3" t="n">
-        <v>1981808.388283358</v>
+        <v>2296625.604778039</v>
       </c>
       <c r="AF3" t="n">
         <v>4.006996402187022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.6015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1792667.377191136</v>
+        <v>2077438.880392303</v>
       </c>
     </row>
     <row r="4">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1250.441644124733</v>
+        <v>1461.353241944999</v>
       </c>
       <c r="AB4" t="n">
-        <v>1710.909423083407</v>
+        <v>1999.487975984093</v>
       </c>
       <c r="AC4" t="n">
-        <v>1547.622629020782</v>
+        <v>1808.65964985517</v>
       </c>
       <c r="AD4" t="n">
-        <v>1250441.644124733</v>
+        <v>1461353.241944999</v>
       </c>
       <c r="AE4" t="n">
-        <v>1710909.423083407</v>
+        <v>1999487.975984093</v>
       </c>
       <c r="AF4" t="n">
         <v>4.379586833571484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.63671874999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>1547622.629020782</v>
+        <v>1808659.64985517</v>
       </c>
     </row>
     <row r="5">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1146.6294240027</v>
+        <v>1347.952578039373</v>
       </c>
       <c r="AB5" t="n">
-        <v>1568.86896364052</v>
+        <v>1844.32818474421</v>
       </c>
       <c r="AC5" t="n">
-        <v>1419.138311672088</v>
+        <v>1668.308091323087</v>
       </c>
       <c r="AD5" t="n">
-        <v>1146629.4240027</v>
+        <v>1347952.578039373</v>
       </c>
       <c r="AE5" t="n">
-        <v>1568868.96364052</v>
+        <v>1844328.18474421</v>
       </c>
       <c r="AF5" t="n">
         <v>4.581801039981065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.75520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1419138.311672088</v>
+        <v>1668308.091323087</v>
       </c>
     </row>
     <row r="6">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1080.43943143331</v>
+        <v>1281.728420051203</v>
       </c>
       <c r="AB6" t="n">
-        <v>1478.304895710699</v>
+        <v>1753.717370181141</v>
       </c>
       <c r="AC6" t="n">
-        <v>1337.217551278022</v>
+        <v>1586.34504572884</v>
       </c>
       <c r="AD6" t="n">
-        <v>1080439.43143331</v>
+        <v>1281728.420051203</v>
       </c>
       <c r="AE6" t="n">
-        <v>1478304.895710699</v>
+        <v>1753717.370181141</v>
       </c>
       <c r="AF6" t="n">
         <v>4.701408591857371e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.72005208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1337217.551278022</v>
+        <v>1586345.04572884</v>
       </c>
     </row>
     <row r="7">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1051.456360151587</v>
+        <v>1243.123750596963</v>
       </c>
       <c r="AB7" t="n">
-        <v>1438.648978940183</v>
+        <v>1700.896758316035</v>
       </c>
       <c r="AC7" t="n">
-        <v>1301.346339546655</v>
+        <v>1538.565558925945</v>
       </c>
       <c r="AD7" t="n">
-        <v>1051456.360151588</v>
+        <v>1243123.750596963</v>
       </c>
       <c r="AE7" t="n">
-        <v>1438648.978940184</v>
+        <v>1700896.758316035</v>
       </c>
       <c r="AF7" t="n">
         <v>4.761068953464737e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.21875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1301346.339546655</v>
+        <v>1538565.558925945</v>
       </c>
     </row>
     <row r="8">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1048.583669465059</v>
+        <v>1240.251059910435</v>
       </c>
       <c r="AB8" t="n">
-        <v>1434.718436808706</v>
+        <v>1696.966216184558</v>
       </c>
       <c r="AC8" t="n">
-        <v>1297.790922839656</v>
+        <v>1535.010142218946</v>
       </c>
       <c r="AD8" t="n">
-        <v>1048583.669465059</v>
+        <v>1240251.059910435</v>
       </c>
       <c r="AE8" t="n">
-        <v>1434718.436808706</v>
+        <v>1696966.216184558</v>
       </c>
       <c r="AF8" t="n">
         <v>4.765945040711493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.1796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1297790.922839656</v>
+        <v>1535010.142218946</v>
       </c>
     </row>
   </sheetData>
@@ -11229,28 +11229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2736.465993542017</v>
+        <v>3074.118508066801</v>
       </c>
       <c r="AB2" t="n">
-        <v>3744.15349672374</v>
+        <v>4206.144563274194</v>
       </c>
       <c r="AC2" t="n">
-        <v>3386.816741948722</v>
+        <v>3804.716029516118</v>
       </c>
       <c r="AD2" t="n">
-        <v>2736465.993542017</v>
+        <v>3074118.5080668</v>
       </c>
       <c r="AE2" t="n">
-        <v>3744153.49672374</v>
+        <v>4206144.563274194</v>
       </c>
       <c r="AF2" t="n">
         <v>2.590179386729727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3386816.741948722</v>
+        <v>3804716.029516119</v>
       </c>
     </row>
     <row r="3">
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1612.209415584711</v>
+        <v>1853.351025775194</v>
       </c>
       <c r="AB3" t="n">
-        <v>2205.896048062621</v>
+        <v>2535.836637542258</v>
       </c>
       <c r="AC3" t="n">
-        <v>1995.368425230071</v>
+        <v>2293.819947924299</v>
       </c>
       <c r="AD3" t="n">
-        <v>1612209.415584711</v>
+        <v>1853351.025775194</v>
       </c>
       <c r="AE3" t="n">
-        <v>2205896.048062621</v>
+        <v>2535836.637542258</v>
       </c>
       <c r="AF3" t="n">
         <v>3.643091233180224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.38541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1995368.425230071</v>
+        <v>2293819.947924299</v>
       </c>
     </row>
     <row r="4">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1369.926057801809</v>
+        <v>1591.832806933136</v>
       </c>
       <c r="AB4" t="n">
-        <v>1874.393269156685</v>
+        <v>2178.015873153006</v>
       </c>
       <c r="AC4" t="n">
-        <v>1695.503806275846</v>
+        <v>1970.149095083759</v>
       </c>
       <c r="AD4" t="n">
-        <v>1369926.057801809</v>
+        <v>1591832.806933136</v>
       </c>
       <c r="AE4" t="n">
-        <v>1874393.269156685</v>
+        <v>2178015.873153006</v>
       </c>
       <c r="AF4" t="n">
         <v>4.031875345163489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.71744791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1695503.806275846</v>
+        <v>1970149.095083759</v>
       </c>
     </row>
     <row r="5">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1258.579340848346</v>
+        <v>1470.834999546243</v>
       </c>
       <c r="AB5" t="n">
-        <v>1722.043778750495</v>
+        <v>2012.461335039738</v>
       </c>
       <c r="AC5" t="n">
-        <v>1557.694337410171</v>
+        <v>1820.394849730768</v>
       </c>
       <c r="AD5" t="n">
-        <v>1258579.340848346</v>
+        <v>1470834.999546243</v>
       </c>
       <c r="AE5" t="n">
-        <v>1722043.778750495</v>
+        <v>2012461.335039738</v>
       </c>
       <c r="AF5" t="n">
         <v>4.235201854982034e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.62109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1557694.337410171</v>
+        <v>1820394.849730768</v>
       </c>
     </row>
     <row r="6">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1190.678540116489</v>
+        <v>1393.215788573252</v>
       </c>
       <c r="AB6" t="n">
-        <v>1629.138907617257</v>
+        <v>1906.259306268579</v>
       </c>
       <c r="AC6" t="n">
-        <v>1473.656176785083</v>
+        <v>1724.328593530045</v>
       </c>
       <c r="AD6" t="n">
-        <v>1190678.540116489</v>
+        <v>1393215.788573252</v>
       </c>
       <c r="AE6" t="n">
-        <v>1629138.907617257</v>
+        <v>1906259.306268579</v>
       </c>
       <c r="AF6" t="n">
         <v>4.358930503433532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.43619791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1473656.176785083</v>
+        <v>1724328.593530045</v>
       </c>
     </row>
     <row r="7">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1132.077434614568</v>
+        <v>1334.682002879035</v>
       </c>
       <c r="AB7" t="n">
-        <v>1548.958289771215</v>
+        <v>1826.170798353379</v>
       </c>
       <c r="AC7" t="n">
-        <v>1401.127884572064</v>
+        <v>1651.883620405345</v>
       </c>
       <c r="AD7" t="n">
-        <v>1132077.434614568</v>
+        <v>1334682.002879035</v>
       </c>
       <c r="AE7" t="n">
-        <v>1548958.289771215</v>
+        <v>1826170.798353379</v>
       </c>
       <c r="AF7" t="n">
         <v>4.449358005802898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.61588541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1401127.884572064</v>
+        <v>1651883.620405345</v>
       </c>
     </row>
     <row r="8">
@@ -11865,28 +11865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1099.310579163116</v>
+        <v>1292.23090260523</v>
       </c>
       <c r="AB8" t="n">
-        <v>1504.1252325709</v>
+        <v>1768.087330148391</v>
       </c>
       <c r="AC8" t="n">
-        <v>1360.573631427356</v>
+        <v>1599.343556885181</v>
       </c>
       <c r="AD8" t="n">
-        <v>1099310.579163116</v>
+        <v>1292230.90260523</v>
       </c>
       <c r="AE8" t="n">
-        <v>1504125.2325709</v>
+        <v>1768087.330148391</v>
       </c>
       <c r="AF8" t="n">
         <v>4.500798800563916e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.16015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1360573.631427356</v>
+        <v>1599343.556885181</v>
       </c>
     </row>
     <row r="9">
@@ -11971,28 +11971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1089.690620025516</v>
+        <v>1282.61094346763</v>
       </c>
       <c r="AB9" t="n">
-        <v>1490.962780076191</v>
+        <v>1754.924877653682</v>
       </c>
       <c r="AC9" t="n">
-        <v>1348.667384925124</v>
+        <v>1587.437310382949</v>
       </c>
       <c r="AD9" t="n">
-        <v>1089690.620025516</v>
+        <v>1282610.94346763</v>
       </c>
       <c r="AE9" t="n">
-        <v>1490962.780076191</v>
+        <v>1754924.877653682</v>
       </c>
       <c r="AF9" t="n">
         <v>4.513794369766699e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.04947916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1348667.384925124</v>
+        <v>1587437.310382949</v>
       </c>
     </row>
     <row r="10">
@@ -12077,28 +12077,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1092.862385671582</v>
+        <v>1285.782709113696</v>
       </c>
       <c r="AB10" t="n">
-        <v>1495.302529761564</v>
+        <v>1759.264627339054</v>
       </c>
       <c r="AC10" t="n">
-        <v>1352.592954991401</v>
+        <v>1591.362880449227</v>
       </c>
       <c r="AD10" t="n">
-        <v>1092862.385671582</v>
+        <v>1285782.709113696</v>
       </c>
       <c r="AE10" t="n">
-        <v>1495302.529761564</v>
+        <v>1759264.627339054</v>
       </c>
       <c r="AF10" t="n">
         <v>4.514335851816815e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.04296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1352592.954991401</v>
+        <v>1591362.880449227</v>
       </c>
     </row>
   </sheetData>
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3823.204737241028</v>
+        <v>4223.345320643381</v>
       </c>
       <c r="AB2" t="n">
-        <v>5231.077389382498</v>
+        <v>5778.567388550286</v>
       </c>
       <c r="AC2" t="n">
-        <v>4731.830705202862</v>
+        <v>5227.069027257096</v>
       </c>
       <c r="AD2" t="n">
-        <v>3823204.737241028</v>
+        <v>4223345.320643381</v>
       </c>
       <c r="AE2" t="n">
-        <v>5231077.389382498</v>
+        <v>5778567.388550285</v>
       </c>
       <c r="AF2" t="n">
         <v>1.99134067836031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4731830.705202863</v>
+        <v>5227069.027257096</v>
       </c>
     </row>
     <row r="3">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1967.783029300789</v>
+        <v>2231.243923028348</v>
       </c>
       <c r="AB3" t="n">
-        <v>2692.407553149676</v>
+        <v>3052.886371022212</v>
       </c>
       <c r="AC3" t="n">
-        <v>2435.447955094805</v>
+        <v>2761.523180524669</v>
       </c>
       <c r="AD3" t="n">
-        <v>1967783.029300789</v>
+        <v>2231243.923028348</v>
       </c>
       <c r="AE3" t="n">
-        <v>2692407.553149676</v>
+        <v>3052886.371022212</v>
       </c>
       <c r="AF3" t="n">
         <v>3.06416900822962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.29166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2435447.955094805</v>
+        <v>2761523.18052467</v>
       </c>
     </row>
     <row r="4">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1626.839697228428</v>
+        <v>1851.317581886461</v>
       </c>
       <c r="AB4" t="n">
-        <v>2225.913844850027</v>
+        <v>2533.054389904481</v>
       </c>
       <c r="AC4" t="n">
-        <v>2013.475751587242</v>
+        <v>2291.303234096162</v>
       </c>
       <c r="AD4" t="n">
-        <v>1626839.697228428</v>
+        <v>1851317.581886461</v>
       </c>
       <c r="AE4" t="n">
-        <v>2225913.844850027</v>
+        <v>2533054.389904481</v>
       </c>
       <c r="AF4" t="n">
         <v>3.476662763875632e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.08723958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2013475.751587242</v>
+        <v>2291303.234096162</v>
       </c>
     </row>
     <row r="5">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1477.088111019368</v>
+        <v>1691.768995281849</v>
       </c>
       <c r="AB5" t="n">
-        <v>2021.017118025076</v>
+        <v>2314.752974925183</v>
       </c>
       <c r="AC5" t="n">
-        <v>1828.134080796102</v>
+        <v>2093.836199774527</v>
       </c>
       <c r="AD5" t="n">
-        <v>1477088.111019368</v>
+        <v>1691768.995281849</v>
       </c>
       <c r="AE5" t="n">
-        <v>2021017.118025076</v>
+        <v>2314752.974925183</v>
       </c>
       <c r="AF5" t="n">
         <v>3.690785417462761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.41145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1828134.080796102</v>
+        <v>2093836.199774527</v>
       </c>
     </row>
     <row r="6">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1386.446387896275</v>
+        <v>1601.16042654768</v>
       </c>
       <c r="AB6" t="n">
-        <v>1896.997113617459</v>
+        <v>2190.77833381516</v>
       </c>
       <c r="AC6" t="n">
-        <v>1715.950371545979</v>
+        <v>1981.693524412543</v>
       </c>
       <c r="AD6" t="n">
-        <v>1386446.387896275</v>
+        <v>1601160.42654768</v>
       </c>
       <c r="AE6" t="n">
-        <v>1896997.113617459</v>
+        <v>2190778.33381516</v>
       </c>
       <c r="AF6" t="n">
         <v>3.824181369467617e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.90104166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1715950.371545979</v>
+        <v>1981693.524412544</v>
       </c>
     </row>
     <row r="7">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1323.490562233627</v>
+        <v>1528.475931327041</v>
       </c>
       <c r="AB7" t="n">
-        <v>1810.858175530816</v>
+        <v>2091.328200840665</v>
       </c>
       <c r="AC7" t="n">
-        <v>1638.032412813566</v>
+        <v>1891.734772549996</v>
       </c>
       <c r="AD7" t="n">
-        <v>1323490.562233627</v>
+        <v>1528475.931327041</v>
       </c>
       <c r="AE7" t="n">
-        <v>1810858.175530816</v>
+        <v>2091328.200840665</v>
       </c>
       <c r="AF7" t="n">
         <v>3.919921268600253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.87890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1638032.412813566</v>
+        <v>1891734.772549996</v>
       </c>
     </row>
     <row r="8">
@@ -13010,28 +13010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1281.047129900895</v>
+        <v>1476.236509628614</v>
       </c>
       <c r="AB8" t="n">
-        <v>1752.78519894109</v>
+        <v>2019.851919432245</v>
       </c>
       <c r="AC8" t="n">
-        <v>1585.501839603629</v>
+        <v>1827.080087121604</v>
       </c>
       <c r="AD8" t="n">
-        <v>1281047.129900895</v>
+        <v>1476236.509628614</v>
       </c>
       <c r="AE8" t="n">
-        <v>1752785.19894109</v>
+        <v>2019851.919432245</v>
       </c>
       <c r="AF8" t="n">
         <v>3.989818778506857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.16276041666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1585501.839603629</v>
+        <v>1827080.087121604</v>
       </c>
     </row>
     <row r="9">
@@ -13116,28 +13116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1237.055476179546</v>
+        <v>1442.006679854179</v>
       </c>
       <c r="AB9" t="n">
-        <v>1692.593877544751</v>
+        <v>1973.017156221351</v>
       </c>
       <c r="AC9" t="n">
-        <v>1531.055093442306</v>
+        <v>1784.715167978556</v>
       </c>
       <c r="AD9" t="n">
-        <v>1237055.476179546</v>
+        <v>1442006.679854179</v>
       </c>
       <c r="AE9" t="n">
-        <v>1692593.87754475</v>
+        <v>1973017.156221351</v>
       </c>
       <c r="AF9" t="n">
         <v>4.040765202981035e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.65494791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1531055.093442306</v>
+        <v>1784715.167978556</v>
       </c>
     </row>
     <row r="10">
@@ -13222,28 +13222,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1207.560223443654</v>
+        <v>1402.715437752592</v>
       </c>
       <c r="AB10" t="n">
-        <v>1652.23717151279</v>
+        <v>1919.257145370697</v>
       </c>
       <c r="AC10" t="n">
-        <v>1494.549974793043</v>
+        <v>1736.085937110839</v>
       </c>
       <c r="AD10" t="n">
-        <v>1207560.223443654</v>
+        <v>1402715.437752592</v>
       </c>
       <c r="AE10" t="n">
-        <v>1652237.17151279</v>
+        <v>1919257.145370697</v>
       </c>
       <c r="AF10" t="n">
         <v>4.080390199794286e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.27083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1494549.974793043</v>
+        <v>1736085.937110839</v>
       </c>
     </row>
     <row r="11">
@@ -13328,28 +13328,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1173.656406907343</v>
+        <v>1378.573445163195</v>
       </c>
       <c r="AB11" t="n">
-        <v>1605.848473996987</v>
+        <v>1886.22500604034</v>
       </c>
       <c r="AC11" t="n">
-        <v>1452.588549461203</v>
+        <v>1706.206338797272</v>
       </c>
       <c r="AD11" t="n">
-        <v>1173656.406907343</v>
+        <v>1378573.445163195</v>
       </c>
       <c r="AE11" t="n">
-        <v>1605848.473996987</v>
+        <v>1886225.00604034</v>
       </c>
       <c r="AF11" t="n">
         <v>4.110908830880268e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.97786458333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1452588.549461203</v>
+        <v>1706206.338797272</v>
       </c>
     </row>
     <row r="12">
@@ -13434,28 +13434,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1161.122735680591</v>
+        <v>1356.345269797234</v>
       </c>
       <c r="AB12" t="n">
-        <v>1588.699352077995</v>
+        <v>1855.811435866744</v>
       </c>
       <c r="AC12" t="n">
-        <v>1437.076115669216</v>
+        <v>1678.69539707533</v>
       </c>
       <c r="AD12" t="n">
-        <v>1161122.735680591</v>
+        <v>1356345.269797234</v>
       </c>
       <c r="AE12" t="n">
-        <v>1588699.352077995</v>
+        <v>1855811.435866744</v>
       </c>
       <c r="AF12" t="n">
         <v>4.124691438467485e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.84765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1437076.115669216</v>
+        <v>1678695.39707533</v>
       </c>
     </row>
     <row r="13">
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1163.95232843785</v>
+        <v>1359.174862554493</v>
       </c>
       <c r="AB13" t="n">
-        <v>1592.5709257213</v>
+        <v>1859.683009510048</v>
       </c>
       <c r="AC13" t="n">
-        <v>1440.578191757791</v>
+        <v>1682.197473163905</v>
       </c>
       <c r="AD13" t="n">
-        <v>1163952.32843785</v>
+        <v>1359174.862554493</v>
       </c>
       <c r="AE13" t="n">
-        <v>1592570.9257213</v>
+        <v>1859683.009510048</v>
       </c>
       <c r="AF13" t="n">
         <v>4.124445320474857e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>39</v>
+        <v>38.84765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1440578.191757791</v>
+        <v>1682197.473163906</v>
       </c>
     </row>
   </sheetData>
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1939.486012516467</v>
+        <v>2215.491210395741</v>
       </c>
       <c r="AB2" t="n">
-        <v>2653.690326409092</v>
+        <v>3031.332814637646</v>
       </c>
       <c r="AC2" t="n">
-        <v>2400.425846134373</v>
+        <v>2742.02666531084</v>
       </c>
       <c r="AD2" t="n">
-        <v>1939486.012516467</v>
+        <v>2215491.210395741</v>
       </c>
       <c r="AE2" t="n">
-        <v>2653690.326409092</v>
+        <v>3031332.814637646</v>
       </c>
       <c r="AF2" t="n">
         <v>3.444082248324277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.00130208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2400425.846134373</v>
+        <v>2742026.66531084</v>
       </c>
     </row>
     <row r="3">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1288.844592825631</v>
+        <v>1517.215904310234</v>
       </c>
       <c r="AB3" t="n">
-        <v>1763.4540317145</v>
+        <v>2075.921735118937</v>
       </c>
       <c r="AC3" t="n">
-        <v>1595.152453950946</v>
+        <v>1877.798678293639</v>
       </c>
       <c r="AD3" t="n">
-        <v>1288844.592825631</v>
+        <v>1517215.904310234</v>
       </c>
       <c r="AE3" t="n">
-        <v>1763454.0317145</v>
+        <v>2075921.735118937</v>
       </c>
       <c r="AF3" t="n">
         <v>4.448619021688525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.90234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1595152.453950946</v>
+        <v>1877798.678293639</v>
       </c>
     </row>
     <row r="4">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1125.16807981682</v>
+        <v>1324.981176363662</v>
       </c>
       <c r="AB4" t="n">
-        <v>1539.504605717716</v>
+        <v>1812.897699544785</v>
       </c>
       <c r="AC4" t="n">
-        <v>1392.576446856302</v>
+        <v>1639.877287518132</v>
       </c>
       <c r="AD4" t="n">
-        <v>1125168.07981682</v>
+        <v>1324981.176363662</v>
       </c>
       <c r="AE4" t="n">
-        <v>1539504.605717716</v>
+        <v>1812897.699544785</v>
       </c>
       <c r="AF4" t="n">
         <v>4.815885520685777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.47786458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1392576.446856302</v>
+        <v>1639877.287518132</v>
       </c>
     </row>
     <row r="5">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1033.279601644439</v>
+        <v>1233.125852580205</v>
       </c>
       <c r="AB5" t="n">
-        <v>1413.778736048714</v>
+        <v>1687.217193173375</v>
       </c>
       <c r="AC5" t="n">
-        <v>1278.849677731142</v>
+        <v>1526.191552281111</v>
       </c>
       <c r="AD5" t="n">
-        <v>1033279.601644439</v>
+        <v>1233125.852580205</v>
       </c>
       <c r="AE5" t="n">
-        <v>1413778.736048714</v>
+        <v>1687217.193173375</v>
       </c>
       <c r="AF5" t="n">
         <v>5.000592648836442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.94791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1278849.677731142</v>
+        <v>1526191.552281111</v>
       </c>
     </row>
     <row r="6">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1001.411683241874</v>
+        <v>1191.70503779951</v>
       </c>
       <c r="AB6" t="n">
-        <v>1370.175644176987</v>
+        <v>1630.543407033048</v>
       </c>
       <c r="AC6" t="n">
-        <v>1239.408003750329</v>
+        <v>1474.926632747858</v>
       </c>
       <c r="AD6" t="n">
-        <v>1001411.683241874</v>
+        <v>1191705.03779951</v>
       </c>
       <c r="AE6" t="n">
-        <v>1370175.644176987</v>
+        <v>1630543.407033048</v>
       </c>
       <c r="AF6" t="n">
         <v>5.070548172454967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.39453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1239408.00375033</v>
+        <v>1474926.632747858</v>
       </c>
     </row>
     <row r="7">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1004.753754461946</v>
+        <v>1195.047109019583</v>
       </c>
       <c r="AB7" t="n">
-        <v>1374.748413462067</v>
+        <v>1635.116176318128</v>
       </c>
       <c r="AC7" t="n">
-        <v>1243.544354352764</v>
+        <v>1479.062983350292</v>
       </c>
       <c r="AD7" t="n">
-        <v>1004753.754461946</v>
+        <v>1195047.109019583</v>
       </c>
       <c r="AE7" t="n">
-        <v>1374748.413462067</v>
+        <v>1635116.176318128</v>
       </c>
       <c r="AF7" t="n">
         <v>5.070854994926978e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.39453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1243544.354352764</v>
+        <v>1479062.983350292</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1458.178313200971</v>
+        <v>1711.935183316873</v>
       </c>
       <c r="AB2" t="n">
-        <v>1995.143898408543</v>
+        <v>2342.345243064129</v>
       </c>
       <c r="AC2" t="n">
-        <v>1804.730164946479</v>
+        <v>2118.795100568284</v>
       </c>
       <c r="AD2" t="n">
-        <v>1458178.313200971</v>
+        <v>1711935.183316873</v>
       </c>
       <c r="AE2" t="n">
-        <v>1995143.898408543</v>
+        <v>2342345.243064129</v>
       </c>
       <c r="AF2" t="n">
         <v>4.403891707619453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.57552083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1804730.164946479</v>
+        <v>2118795.100568284</v>
       </c>
     </row>
     <row r="3">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1055.327260617284</v>
+        <v>1262.012144082247</v>
       </c>
       <c r="AB3" t="n">
-        <v>1443.945315729425</v>
+        <v>1726.74069157971</v>
       </c>
       <c r="AC3" t="n">
-        <v>1306.137201386187</v>
+        <v>1561.942983471123</v>
       </c>
       <c r="AD3" t="n">
-        <v>1055327.260617284</v>
+        <v>1262012.144082248</v>
       </c>
       <c r="AE3" t="n">
-        <v>1443945.315729425</v>
+        <v>1726740.69157971</v>
       </c>
       <c r="AF3" t="n">
         <v>5.362260599390873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.35677083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1306137.201386187</v>
+        <v>1561942.983471123</v>
       </c>
     </row>
     <row r="4">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>948.0281166938609</v>
+        <v>1135.979464259093</v>
       </c>
       <c r="AB4" t="n">
-        <v>1297.133893309257</v>
+        <v>1554.297218876253</v>
       </c>
       <c r="AC4" t="n">
-        <v>1173.337255070674</v>
+        <v>1405.95727377655</v>
       </c>
       <c r="AD4" t="n">
-        <v>948028.1166938609</v>
+        <v>1135979.464259093</v>
       </c>
       <c r="AE4" t="n">
-        <v>1297133.893309257</v>
+        <v>1554297.218876253</v>
       </c>
       <c r="AF4" t="n">
         <v>5.654969554686185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.16927083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1173337.255070674</v>
+        <v>1405957.27377655</v>
       </c>
     </row>
     <row r="5">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>945.8282248498648</v>
+        <v>1133.779572415097</v>
       </c>
       <c r="AB5" t="n">
-        <v>1294.123904235922</v>
+        <v>1551.287229802919</v>
       </c>
       <c r="AC5" t="n">
-        <v>1170.614535129952</v>
+        <v>1403.234553835829</v>
       </c>
       <c r="AD5" t="n">
-        <v>945828.2248498648</v>
+        <v>1133779.572415097</v>
       </c>
       <c r="AE5" t="n">
-        <v>1294123.904235922</v>
+        <v>1551287.229802919</v>
       </c>
       <c r="AF5" t="n">
         <v>5.672064594983526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.04557291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1170614.535129952</v>
+        <v>1403234.553835829</v>
       </c>
     </row>
   </sheetData>
@@ -27412,28 +27412,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1171.150865690659</v>
+        <v>1403.731720294405</v>
       </c>
       <c r="AB2" t="n">
-        <v>1602.420281967643</v>
+        <v>1920.647667979627</v>
       </c>
       <c r="AC2" t="n">
-        <v>1449.487539267642</v>
+        <v>1737.343750193583</v>
       </c>
       <c r="AD2" t="n">
-        <v>1171150.865690659</v>
+        <v>1403731.720294405</v>
       </c>
       <c r="AE2" t="n">
-        <v>1602420.281967643</v>
+        <v>1920647.667979627</v>
       </c>
       <c r="AF2" t="n">
         <v>5.363423147046368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.55859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1449487.539267642</v>
+        <v>1737343.750193583</v>
       </c>
     </row>
     <row r="3">
@@ -27518,28 +27518,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.260445000476</v>
+        <v>1103.584275544689</v>
       </c>
       <c r="AB3" t="n">
-        <v>1242.722010472513</v>
+        <v>1509.972692502346</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.118365964312</v>
+        <v>1365.863017989906</v>
       </c>
       <c r="AD3" t="n">
-        <v>908260.445000476</v>
+        <v>1103584.275544689</v>
       </c>
       <c r="AE3" t="n">
-        <v>1242722.010472513</v>
+        <v>1509972.692502346</v>
       </c>
       <c r="AF3" t="n">
         <v>6.210506268086199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.07421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1124118.365964312</v>
+        <v>1365863.017989906</v>
       </c>
     </row>
     <row r="4">
@@ -27624,28 +27624,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.9857137215603</v>
+        <v>1091.376864073478</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.927181613775</v>
+        <v>1493.26997357445</v>
       </c>
       <c r="AC4" t="n">
-        <v>1108.926412000162</v>
+        <v>1350.754383114075</v>
       </c>
       <c r="AD4" t="n">
-        <v>895985.7137215603</v>
+        <v>1091376.864073478</v>
       </c>
       <c r="AE4" t="n">
-        <v>1225927.181613775</v>
+        <v>1493269.97357445</v>
       </c>
       <c r="AF4" t="n">
         <v>6.238324446436721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.89192708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1108926.412000162</v>
+        <v>1350754.383114075</v>
       </c>
     </row>
   </sheetData>
@@ -27921,28 +27921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>839.932279207399</v>
+        <v>1049.504083962479</v>
       </c>
       <c r="AB2" t="n">
-        <v>1149.232399608498</v>
+        <v>1435.977788529898</v>
       </c>
       <c r="AC2" t="n">
-        <v>1039.551272347665</v>
+        <v>1298.930083800088</v>
       </c>
       <c r="AD2" t="n">
-        <v>839932.279207399</v>
+        <v>1049504.083962479</v>
       </c>
       <c r="AE2" t="n">
-        <v>1149232.399608498</v>
+        <v>1435977.788529898</v>
       </c>
       <c r="AF2" t="n">
         <v>7.592645425428632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1039551.272347665</v>
+        <v>1298930.083800088</v>
       </c>
     </row>
     <row r="3">
@@ -28027,28 +28027,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>845.8345771115593</v>
+        <v>1055.406381866639</v>
       </c>
       <c r="AB3" t="n">
-        <v>1157.308183991976</v>
+        <v>1444.053572913376</v>
       </c>
       <c r="AC3" t="n">
-        <v>1046.856315204019</v>
+        <v>1306.235126656442</v>
       </c>
       <c r="AD3" t="n">
-        <v>845834.5771115592</v>
+        <v>1055406.381866639</v>
       </c>
       <c r="AE3" t="n">
-        <v>1157308.183991976</v>
+        <v>1444053.572913376</v>
       </c>
       <c r="AF3" t="n">
         <v>7.592127226860148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.43359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1046856.315204019</v>
+        <v>1306235.126656442</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2508.25619147615</v>
+        <v>2825.629067592832</v>
       </c>
       <c r="AB2" t="n">
-        <v>3431.906777631291</v>
+        <v>3866.150348237279</v>
       </c>
       <c r="AC2" t="n">
-        <v>3104.370411485445</v>
+        <v>3497.170385177461</v>
       </c>
       <c r="AD2" t="n">
-        <v>2508256.191476149</v>
+        <v>2825629.067592832</v>
       </c>
       <c r="AE2" t="n">
-        <v>3431906.777631291</v>
+        <v>3866150.348237279</v>
       </c>
       <c r="AF2" t="n">
         <v>2.776298086194085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.27994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3104370.411485445</v>
+        <v>3497170.38517746</v>
       </c>
     </row>
     <row r="3">
@@ -28430,28 +28430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1528.48099457536</v>
+        <v>1759.269953962088</v>
       </c>
       <c r="AB3" t="n">
-        <v>2091.335128600389</v>
+        <v>2407.11076452361</v>
       </c>
       <c r="AC3" t="n">
-        <v>1891.741039134055</v>
+        <v>2177.379491558652</v>
       </c>
       <c r="AD3" t="n">
-        <v>1528480.99457536</v>
+        <v>1759269.953962088</v>
       </c>
       <c r="AE3" t="n">
-        <v>2091335.128600389</v>
+        <v>2407110.76452361</v>
       </c>
       <c r="AF3" t="n">
         <v>3.818558191950693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.4609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1891741.039134055</v>
+        <v>2177379.491558652</v>
       </c>
     </row>
     <row r="4">
@@ -28536,28 +28536,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1314.540115998704</v>
+        <v>1526.088205000997</v>
       </c>
       <c r="AB4" t="n">
-        <v>1798.611780126375</v>
+        <v>2088.06120834232</v>
       </c>
       <c r="AC4" t="n">
-        <v>1626.954796198601</v>
+        <v>1888.77957723044</v>
       </c>
       <c r="AD4" t="n">
-        <v>1314540.115998704</v>
+        <v>1526088.205000997</v>
       </c>
       <c r="AE4" t="n">
-        <v>1798611.780126375</v>
+        <v>2088061.20834232</v>
       </c>
       <c r="AF4" t="n">
         <v>4.19854885550779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.17057291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1626954.796198601</v>
+        <v>1888779.57723044</v>
       </c>
     </row>
     <row r="5">
@@ -28642,28 +28642,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1209.938284349579</v>
+        <v>1411.865938159655</v>
       </c>
       <c r="AB5" t="n">
-        <v>1655.490939356919</v>
+        <v>1931.777263719226</v>
       </c>
       <c r="AC5" t="n">
-        <v>1497.493207600821</v>
+        <v>1747.411152936281</v>
       </c>
       <c r="AD5" t="n">
-        <v>1209938.284349579</v>
+        <v>1411865.938159655</v>
       </c>
       <c r="AE5" t="n">
-        <v>1655490.939356919</v>
+        <v>1931777.263719226</v>
       </c>
       <c r="AF5" t="n">
         <v>4.396478058283684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.22395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1497493.207600821</v>
+        <v>1747411.152936281</v>
       </c>
     </row>
     <row r="6">
@@ -28748,28 +28748,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1141.174283337049</v>
+        <v>1333.515667373689</v>
       </c>
       <c r="AB6" t="n">
-        <v>1561.404999517956</v>
+        <v>1824.574966659873</v>
       </c>
       <c r="AC6" t="n">
-        <v>1412.386697809642</v>
+        <v>1650.440092648903</v>
       </c>
       <c r="AD6" t="n">
-        <v>1141174.283337049</v>
+        <v>1333515.667373688</v>
       </c>
       <c r="AE6" t="n">
-        <v>1561404.999517956</v>
+        <v>1824574.966659873</v>
       </c>
       <c r="AF6" t="n">
         <v>4.522306468487207e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1412386.697809642</v>
+        <v>1650440.092648903</v>
       </c>
     </row>
     <row r="7">
@@ -28854,28 +28854,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1086.582517201046</v>
+        <v>1278.889735818905</v>
       </c>
       <c r="AB7" t="n">
-        <v>1486.710136671933</v>
+        <v>1749.833357180602</v>
       </c>
       <c r="AC7" t="n">
-        <v>1344.820607838745</v>
+        <v>1582.831717477826</v>
       </c>
       <c r="AD7" t="n">
-        <v>1086582.517201046</v>
+        <v>1278889.735818905</v>
       </c>
       <c r="AE7" t="n">
-        <v>1486710.136671933</v>
+        <v>1749833.357180602</v>
       </c>
       <c r="AF7" t="n">
         <v>4.6044289928457e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.36197916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1344820.607838745</v>
+        <v>1582831.717477826</v>
       </c>
     </row>
     <row r="8">
@@ -28960,28 +28960,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1067.114569146227</v>
+        <v>1259.421787764086</v>
       </c>
       <c r="AB8" t="n">
-        <v>1460.073231278076</v>
+        <v>1723.196451786746</v>
       </c>
       <c r="AC8" t="n">
-        <v>1320.725891310547</v>
+        <v>1558.737000949628</v>
       </c>
       <c r="AD8" t="n">
-        <v>1067114.569146227</v>
+        <v>1259421.787764086</v>
       </c>
       <c r="AE8" t="n">
-        <v>1460073.231278077</v>
+        <v>1723196.451786746</v>
       </c>
       <c r="AF8" t="n">
         <v>4.631431992380526e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.13411458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1320725.891310547</v>
+        <v>1558737.000949628</v>
       </c>
     </row>
     <row r="9">
@@ -29066,28 +29066,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1070.195706853482</v>
+        <v>1262.50292547134</v>
       </c>
       <c r="AB9" t="n">
-        <v>1464.288979819345</v>
+        <v>1727.412200328014</v>
       </c>
       <c r="AC9" t="n">
-        <v>1324.539294727876</v>
+        <v>1562.550404366958</v>
       </c>
       <c r="AD9" t="n">
-        <v>1070195.706853482</v>
+        <v>1262502.92547134</v>
       </c>
       <c r="AE9" t="n">
-        <v>1464288.979819345</v>
+        <v>1727412.200328014</v>
       </c>
       <c r="AF9" t="n">
         <v>4.636999621150594e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.08203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1324539.294727876</v>
+        <v>1562550.404366958</v>
       </c>
     </row>
   </sheetData>
@@ -29363,28 +29363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3517.447651220248</v>
+        <v>3897.062988919201</v>
       </c>
       <c r="AB2" t="n">
-        <v>4812.727055238218</v>
+        <v>5332.133507724679</v>
       </c>
       <c r="AC2" t="n">
-        <v>4353.407139790946</v>
+        <v>4823.242169443613</v>
       </c>
       <c r="AD2" t="n">
-        <v>3517447.651220248</v>
+        <v>3897062.9889192</v>
       </c>
       <c r="AE2" t="n">
-        <v>4812727.055238218</v>
+        <v>5332133.507724678</v>
       </c>
       <c r="AF2" t="n">
         <v>2.124796691078552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.07682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4353407.139790946</v>
+        <v>4823242.169443614</v>
       </c>
     </row>
     <row r="3">
@@ -29469,28 +29469,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1876.574654982243</v>
+        <v>2129.617718372715</v>
       </c>
       <c r="AB3" t="n">
-        <v>2567.612231577554</v>
+        <v>2913.836914380477</v>
       </c>
       <c r="AC3" t="n">
-        <v>2322.562923862192</v>
+        <v>2635.744408867799</v>
       </c>
       <c r="AD3" t="n">
-        <v>1876574.654982243</v>
+        <v>2129617.718372716</v>
       </c>
       <c r="AE3" t="n">
-        <v>2567612.231577554</v>
+        <v>2913836.914380477</v>
       </c>
       <c r="AF3" t="n">
         <v>3.19210015505941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.30208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2322562.923862192</v>
+        <v>2635744.408867799</v>
       </c>
     </row>
     <row r="4">
@@ -29575,28 +29575,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1558.615042088181</v>
+        <v>1782.449119099773</v>
       </c>
       <c r="AB4" t="n">
-        <v>2132.56586182778</v>
+        <v>2438.825520857587</v>
       </c>
       <c r="AC4" t="n">
-        <v>1929.036769049922</v>
+        <v>2206.067436060055</v>
       </c>
       <c r="AD4" t="n">
-        <v>1558615.042088181</v>
+        <v>1782449.119099773</v>
       </c>
       <c r="AE4" t="n">
-        <v>2132565.86182778</v>
+        <v>2438825.520857587</v>
       </c>
       <c r="AF4" t="n">
         <v>3.601111569726597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.47526041666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1929036.769049922</v>
+        <v>2206067.436060055</v>
       </c>
     </row>
     <row r="5">
@@ -29681,28 +29681,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1416.763423883284</v>
+        <v>1640.59648986502</v>
       </c>
       <c r="AB5" t="n">
-        <v>1938.478219748117</v>
+        <v>2244.736495442269</v>
       </c>
       <c r="AC5" t="n">
-        <v>1753.472579126626</v>
+        <v>2030.501994824717</v>
       </c>
       <c r="AD5" t="n">
-        <v>1416763.423883284</v>
+        <v>1640596.48986502</v>
       </c>
       <c r="AE5" t="n">
-        <v>1938478.219748117</v>
+        <v>2244736.495442269</v>
       </c>
       <c r="AF5" t="n">
         <v>3.814421335801489e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.93619791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1753472.579126626</v>
+        <v>2030501.994824717</v>
       </c>
     </row>
     <row r="6">
@@ -29787,28 +29787,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339.150453519098</v>
+        <v>1543.613358171256</v>
       </c>
       <c r="AB6" t="n">
-        <v>1832.284729653242</v>
+        <v>2112.03989606506</v>
       </c>
       <c r="AC6" t="n">
-        <v>1657.414046682905</v>
+        <v>1910.469772651222</v>
       </c>
       <c r="AD6" t="n">
-        <v>1339150.453519098</v>
+        <v>1543613.358171256</v>
       </c>
       <c r="AE6" t="n">
-        <v>1832284.729653242</v>
+        <v>2112039.89606506</v>
       </c>
       <c r="AF6" t="n">
         <v>3.94522449424364e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.51041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1657414.046682905</v>
+        <v>1910469.772651222</v>
       </c>
     </row>
     <row r="7">
@@ -29893,28 +29893,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1278.547664009881</v>
+        <v>1482.976403243258</v>
       </c>
       <c r="AB7" t="n">
-        <v>1749.365319440352</v>
+        <v>2029.073739218922</v>
       </c>
       <c r="AC7" t="n">
-        <v>1582.40834860261</v>
+        <v>1835.421789370746</v>
       </c>
       <c r="AD7" t="n">
-        <v>1278547.664009881</v>
+        <v>1482976.403243258</v>
       </c>
       <c r="AE7" t="n">
-        <v>1749365.319440352</v>
+        <v>2029073.739218922</v>
       </c>
       <c r="AF7" t="n">
         <v>4.038295972365939e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.55338541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1582408.34860261</v>
+        <v>1835421.789370746</v>
       </c>
     </row>
     <row r="8">
@@ -29999,28 +29999,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1231.27697242879</v>
+        <v>1435.671546243387</v>
       </c>
       <c r="AB8" t="n">
-        <v>1684.687473783374</v>
+        <v>1964.349146928696</v>
       </c>
       <c r="AC8" t="n">
-        <v>1523.903265759207</v>
+        <v>1776.874421327163</v>
       </c>
       <c r="AD8" t="n">
-        <v>1231276.97242879</v>
+        <v>1435671.546243387</v>
       </c>
       <c r="AE8" t="n">
-        <v>1684687.473783374</v>
+        <v>1964349.146928696</v>
       </c>
       <c r="AF8" t="n">
         <v>4.104703729728877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.89583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1523903.265759208</v>
+        <v>1776874.421327163</v>
       </c>
     </row>
     <row r="9">
@@ -30105,28 +30105,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1195.18244547731</v>
+        <v>1389.807536110023</v>
       </c>
       <c r="AB9" t="n">
-        <v>1635.301349630214</v>
+        <v>1901.595984886903</v>
       </c>
       <c r="AC9" t="n">
-        <v>1479.230483981365</v>
+        <v>1720.110332996024</v>
       </c>
       <c r="AD9" t="n">
-        <v>1195182.44547731</v>
+        <v>1389807.536110023</v>
       </c>
       <c r="AE9" t="n">
-        <v>1635301.349630214</v>
+        <v>1901595.984886903</v>
       </c>
       <c r="AF9" t="n">
         <v>4.157276537641203e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.39453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1479230.483981365</v>
+        <v>1720110.332996024</v>
       </c>
     </row>
     <row r="10">
@@ -30211,28 +30211,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1165.817240285309</v>
+        <v>1360.442330918023</v>
       </c>
       <c r="AB10" t="n">
-        <v>1595.122580385098</v>
+        <v>1861.417215641787</v>
       </c>
       <c r="AC10" t="n">
-        <v>1442.886320081746</v>
+        <v>1683.766169096405</v>
       </c>
       <c r="AD10" t="n">
-        <v>1165817.240285309</v>
+        <v>1360442.330918023</v>
       </c>
       <c r="AE10" t="n">
-        <v>1595122.580385098</v>
+        <v>1861417.215641787</v>
       </c>
       <c r="AF10" t="n">
         <v>4.195762851567452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.02994791666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1442886.320081746</v>
+        <v>1683766.169096405</v>
       </c>
     </row>
     <row r="11">
@@ -30317,28 +30317,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1146.067553768118</v>
+        <v>1340.759964208536</v>
       </c>
       <c r="AB11" t="n">
-        <v>1568.100187997601</v>
+        <v>1834.486933185131</v>
       </c>
       <c r="AC11" t="n">
-        <v>1418.442906897545</v>
+        <v>1659.406075000523</v>
       </c>
       <c r="AD11" t="n">
-        <v>1146067.553768118</v>
+        <v>1340759.964208536</v>
       </c>
       <c r="AE11" t="n">
-        <v>1568100.187997601</v>
+        <v>1834486.933185131</v>
       </c>
       <c r="AF11" t="n">
         <v>4.207082355663407e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.92578125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1418442.906897545</v>
+        <v>1659406.075000523</v>
       </c>
     </row>
     <row r="12">
@@ -30423,28 +30423,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1143.752003597473</v>
+        <v>1338.444414037891</v>
       </c>
       <c r="AB12" t="n">
-        <v>1564.93195009926</v>
+        <v>1831.318695286791</v>
       </c>
       <c r="AC12" t="n">
-        <v>1415.577041177572</v>
+        <v>1656.54020928055</v>
       </c>
       <c r="AD12" t="n">
-        <v>1143752.003597473</v>
+        <v>1338444.414037891</v>
       </c>
       <c r="AE12" t="n">
-        <v>1564931.95009926</v>
+        <v>1831318.695286791</v>
       </c>
       <c r="AF12" t="n">
         <v>4.213370969050049e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.8671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1415577.041177572</v>
+        <v>1656540.20928055</v>
       </c>
     </row>
   </sheetData>
@@ -30720,28 +30720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>841.2032345145464</v>
+        <v>1066.809317812709</v>
       </c>
       <c r="AB2" t="n">
-        <v>1150.971376730328</v>
+        <v>1459.655572936819</v>
       </c>
       <c r="AC2" t="n">
-        <v>1041.124283933658</v>
+        <v>1320.348093695192</v>
       </c>
       <c r="AD2" t="n">
-        <v>841203.2345145463</v>
+        <v>1066809.317812709</v>
       </c>
       <c r="AE2" t="n">
-        <v>1150971.376730328</v>
+        <v>1459655.572936819</v>
       </c>
       <c r="AF2" t="n">
         <v>8.200879422344731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.44401041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1041124.283933658</v>
+        <v>1320348.093695192</v>
       </c>
     </row>
   </sheetData>
@@ -31017,28 +31017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1610.677449320648</v>
+        <v>1875.016138577494</v>
       </c>
       <c r="AB2" t="n">
-        <v>2203.799944234548</v>
+        <v>2565.479800675685</v>
       </c>
       <c r="AC2" t="n">
-        <v>1993.47237060945</v>
+        <v>2320.634009172712</v>
       </c>
       <c r="AD2" t="n">
-        <v>1610677.449320648</v>
+        <v>1875016.138577494</v>
       </c>
       <c r="AE2" t="n">
-        <v>2203799.944234548</v>
+        <v>2565479.800675685</v>
       </c>
       <c r="AF2" t="n">
         <v>4.033210255234732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.70442708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1993472.37060945</v>
+        <v>2320634.009172712</v>
       </c>
     </row>
     <row r="3">
@@ -31123,28 +31123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1136.856199174329</v>
+        <v>1344.503086879163</v>
       </c>
       <c r="AB3" t="n">
-        <v>1555.496806266094</v>
+        <v>1839.608438758002</v>
       </c>
       <c r="AC3" t="n">
-        <v>1407.042374229537</v>
+        <v>1664.038791269597</v>
       </c>
       <c r="AD3" t="n">
-        <v>1136856.199174329</v>
+        <v>1344503.086879164</v>
       </c>
       <c r="AE3" t="n">
-        <v>1555496.806266094</v>
+        <v>1839608.438758002</v>
       </c>
       <c r="AF3" t="n">
         <v>5.012651894384369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.20963541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1407042.374229537</v>
+        <v>1664038.791269597</v>
       </c>
     </row>
     <row r="4">
@@ -31229,28 +31229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>996.7940254697285</v>
+        <v>1194.963639895267</v>
       </c>
       <c r="AB4" t="n">
-        <v>1363.857561096455</v>
+        <v>1635.001970179843</v>
       </c>
       <c r="AC4" t="n">
-        <v>1233.692909651518</v>
+        <v>1478.959676885555</v>
       </c>
       <c r="AD4" t="n">
-        <v>996794.0254697285</v>
+        <v>1194963.639895267</v>
       </c>
       <c r="AE4" t="n">
-        <v>1363857.561096455</v>
+        <v>1635001.970179843</v>
       </c>
       <c r="AF4" t="n">
         <v>5.359648371841255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.41015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1233692.909651518</v>
+        <v>1478959.676885555</v>
       </c>
     </row>
     <row r="5">
@@ -31335,28 +31335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>958.7434790240393</v>
+        <v>1156.980413257283</v>
       </c>
       <c r="AB5" t="n">
-        <v>1311.795124777829</v>
+        <v>1583.031643792058</v>
       </c>
       <c r="AC5" t="n">
-        <v>1186.599239185053</v>
+        <v>1431.949325507409</v>
       </c>
       <c r="AD5" t="n">
-        <v>958743.4790240392</v>
+        <v>1156980.413257283</v>
       </c>
       <c r="AE5" t="n">
-        <v>1311795.124777829</v>
+        <v>1583031.643792058</v>
       </c>
       <c r="AF5" t="n">
         <v>5.44348644693151e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.79166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1186599.239185053</v>
+        <v>1431949.325507409</v>
       </c>
     </row>
     <row r="6">
@@ -31441,28 +31441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>962.2558773016067</v>
+        <v>1160.49281153485</v>
       </c>
       <c r="AB6" t="n">
-        <v>1316.600943057272</v>
+        <v>1587.837462071501</v>
       </c>
       <c r="AC6" t="n">
-        <v>1190.946396912915</v>
+        <v>1436.296483235271</v>
       </c>
       <c r="AD6" t="n">
-        <v>962255.8773016067</v>
+        <v>1160492.81153485</v>
       </c>
       <c r="AE6" t="n">
-        <v>1316600.943057272</v>
+        <v>1587837.462071501</v>
       </c>
       <c r="AF6" t="n">
         <v>5.444151828479845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.78515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1190946.396912915</v>
+        <v>1436296.483235271</v>
       </c>
     </row>
   </sheetData>
@@ -31738,28 +31738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2115.029393050505</v>
+        <v>2411.097128828029</v>
       </c>
       <c r="AB2" t="n">
-        <v>2893.876524083137</v>
+        <v>3298.969461760797</v>
       </c>
       <c r="AC2" t="n">
-        <v>2617.689010205853</v>
+        <v>2984.120446462942</v>
       </c>
       <c r="AD2" t="n">
-        <v>2115029.393050505</v>
+        <v>2411097.128828029</v>
       </c>
       <c r="AE2" t="n">
-        <v>2893876.524083137</v>
+        <v>3298969.461760798</v>
       </c>
       <c r="AF2" t="n">
         <v>3.196731500220073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.33203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2617689.010205853</v>
+        <v>2984120.446462942</v>
       </c>
     </row>
     <row r="3">
@@ -31844,28 +31844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1368.198306575722</v>
+        <v>1597.448726517092</v>
       </c>
       <c r="AB3" t="n">
-        <v>1872.029283706148</v>
+        <v>2185.699822084662</v>
       </c>
       <c r="AC3" t="n">
-        <v>1693.365436278834</v>
+        <v>1977.099698713868</v>
       </c>
       <c r="AD3" t="n">
-        <v>1368198.306575722</v>
+        <v>1597448.726517092</v>
       </c>
       <c r="AE3" t="n">
-        <v>1872029.283706148</v>
+        <v>2185699.822084662</v>
       </c>
       <c r="AF3" t="n">
         <v>4.215502664084111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.75520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1693365.436278834</v>
+        <v>1977099.698713868</v>
       </c>
     </row>
     <row r="4">
@@ -31950,28 +31950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1193.594559861204</v>
+        <v>1394.181146985065</v>
       </c>
       <c r="AB4" t="n">
-        <v>1633.128734477688</v>
+        <v>1907.58015223623</v>
       </c>
       <c r="AC4" t="n">
-        <v>1477.265220169711</v>
+        <v>1725.523379812362</v>
       </c>
       <c r="AD4" t="n">
-        <v>1193594.559861204</v>
+        <v>1394181.146985065</v>
       </c>
       <c r="AE4" t="n">
-        <v>1633128.734477688</v>
+        <v>1907580.15223623</v>
       </c>
       <c r="AF4" t="n">
         <v>4.582544673978716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1477265.220169711</v>
+        <v>1725523.379812362</v>
       </c>
     </row>
     <row r="5">
@@ -32056,28 +32056,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1095.363558059712</v>
+        <v>1295.881814346012</v>
       </c>
       <c r="AB5" t="n">
-        <v>1498.724744166942</v>
+        <v>1773.082668658988</v>
       </c>
       <c r="AC5" t="n">
-        <v>1355.688558057038</v>
+        <v>1603.862147299328</v>
       </c>
       <c r="AD5" t="n">
-        <v>1095363.558059712</v>
+        <v>1295881.814346012</v>
       </c>
       <c r="AE5" t="n">
-        <v>1498724.744166942</v>
+        <v>1773082.668658988</v>
       </c>
       <c r="AF5" t="n">
         <v>4.780137103841267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.34505208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1355688.558057038</v>
+        <v>1603862.147299328</v>
       </c>
     </row>
     <row r="6">
@@ -32162,28 +32162,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1035.196178734312</v>
+        <v>1226.193652490271</v>
       </c>
       <c r="AB6" t="n">
-        <v>1416.401081376491</v>
+        <v>1677.732251183244</v>
       </c>
       <c r="AC6" t="n">
-        <v>1281.221750101321</v>
+        <v>1517.611839842318</v>
       </c>
       <c r="AD6" t="n">
-        <v>1035196.178734312</v>
+        <v>1226193.652490271</v>
       </c>
       <c r="AE6" t="n">
-        <v>1416401.081376491</v>
+        <v>1677732.251183243</v>
       </c>
       <c r="AF6" t="n">
         <v>4.888264895295286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1281221.750101321</v>
+        <v>1517611.839842318</v>
       </c>
     </row>
     <row r="7">
@@ -32268,28 +32268,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1025.293223643246</v>
+        <v>1216.290697399204</v>
       </c>
       <c r="AB7" t="n">
-        <v>1402.851421333349</v>
+        <v>1664.182591140101</v>
       </c>
       <c r="AC7" t="n">
-        <v>1268.965250595629</v>
+        <v>1505.355340336626</v>
       </c>
       <c r="AD7" t="n">
-        <v>1025293.223643246</v>
+        <v>1216290.697399204</v>
       </c>
       <c r="AE7" t="n">
-        <v>1402851.421333349</v>
+        <v>1664182.591140101</v>
       </c>
       <c r="AF7" t="n">
         <v>4.911075415684216e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.27083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1268965.250595629</v>
+        <v>1505355.340336626</v>
       </c>
     </row>
     <row r="8">
@@ -32374,28 +32374,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1028.895919702624</v>
+        <v>1219.893393458582</v>
       </c>
       <c r="AB8" t="n">
-        <v>1407.780789021523</v>
+        <v>1669.111958828275</v>
       </c>
       <c r="AC8" t="n">
-        <v>1273.424166350055</v>
+        <v>1509.814256091051</v>
       </c>
       <c r="AD8" t="n">
-        <v>1028895.919702624</v>
+        <v>1219893.393458582</v>
       </c>
       <c r="AE8" t="n">
-        <v>1407780.789021523</v>
+        <v>1669111.958828275</v>
       </c>
       <c r="AF8" t="n">
         <v>4.911075415684216e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.27083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1273424.166350055</v>
+        <v>1509814.256091051</v>
       </c>
     </row>
   </sheetData>
